--- a/SPPSApi/Doc/Template/FS0312_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0312_Export.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70F49CC-2375-496B-AC57-9DE7E97C9F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98836F10-648A-4E94-BDBD-E2A6847E2FA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,10 @@
   </si>
   <si>
     <t>送信时间</t>
+  </si>
+  <si>
+    <t>供应商名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -461,24 +465,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="17" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.3984375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.19921875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.19921875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.19921875" style="3" customWidth="1"/>
+    <col min="4" max="5" width="15.3984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.19921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.19921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="25.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.19921875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -492,18 +496,21 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
     </row>

--- a/SPPSApi/Doc/Template/FS0312_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0312_Export.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98836F10-648A-4E94-BDBD-E2A6847E2FA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB617F2A-AF71-4FBF-935F-3A164BD9B778}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,16 +39,50 @@
     <t>品名</t>
   </si>
   <si>
-    <t>旧型今后必要数(合计)</t>
-  </si>
-  <si>
-    <t>受入</t>
-  </si>
-  <si>
     <t>送信时间</t>
   </si>
   <si>
     <t>供应商名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型1年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型2年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型3年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型4年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型5年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型6年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型7年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型8年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型9年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型10年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,13 +143,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -465,53 +496,75 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="17" style="3" customWidth="1"/>
-    <col min="4" max="5" width="15.3984375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.19921875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.19921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="25.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.19921875" style="3" customWidth="1"/>
+    <col min="1" max="3" width="17" style="2" customWidth="1"/>
+    <col min="4" max="5" width="15.3984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.19921875" style="2" customWidth="1"/>
+    <col min="7" max="17" width="9.19921875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="13.19921875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0312_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0312_Export.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB617F2A-AF71-4FBF-935F-3A164BD9B778}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF34EB7D-388B-401F-A37B-19BFAE80ADDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,21 +99,29 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="14"/>
-      <name val="黑体"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -151,10 +159,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -496,22 +504,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="17" style="2" customWidth="1"/>
-    <col min="4" max="5" width="15.3984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.19921875" style="2" customWidth="1"/>
-    <col min="7" max="17" width="9.19921875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="13.19921875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="15.4140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" style="2" customWidth="1"/>
+    <col min="7" max="17" width="9.1640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="9.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -567,7 +575,47 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:18" ht="6.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
